--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>122.2416213921451</v>
+        <v>2177.593111872619</v>
       </c>
       <c r="R2">
-        <v>122.2416213921451</v>
+        <v>19598.33800685357</v>
       </c>
       <c r="S2">
-        <v>5.747409728956783E-05</v>
+        <v>0.0006335074171710492</v>
       </c>
       <c r="T2">
-        <v>5.747409728956783E-05</v>
+        <v>0.0006335074171710492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>279.236289479401</v>
+        <v>1066.111118695787</v>
       </c>
       <c r="R3">
-        <v>279.236289479401</v>
+        <v>9595.000068262081</v>
       </c>
       <c r="S3">
-        <v>0.0001312879646518519</v>
+        <v>0.00031015404004539</v>
       </c>
       <c r="T3">
-        <v>0.0001312879646518519</v>
+        <v>0.00031015404004539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>330.0759770201307</v>
+        <v>1558.926547705157</v>
       </c>
       <c r="R4">
-        <v>330.0759770201307</v>
+        <v>14030.33892934641</v>
       </c>
       <c r="S4">
-        <v>0.0001551911582990763</v>
+        <v>0.0004535243638545476</v>
       </c>
       <c r="T4">
-        <v>0.0001551911582990763</v>
+        <v>0.0004535243638545476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>134.5111047662996</v>
+        <v>525.497985222804</v>
       </c>
       <c r="R5">
-        <v>134.5111047662996</v>
+        <v>4729.481867005235</v>
       </c>
       <c r="S5">
-        <v>6.324281561241069E-05</v>
+        <v>0.0001528783635161327</v>
       </c>
       <c r="T5">
-        <v>6.324281561241069E-05</v>
+        <v>0.0001528783635161327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>295528.0813260918</v>
+        <v>1379962.221758192</v>
       </c>
       <c r="R6">
-        <v>295528.0813260918</v>
+        <v>12419659.99582373</v>
       </c>
       <c r="S6">
-        <v>0.1389478436599543</v>
+        <v>0.4014598953924287</v>
       </c>
       <c r="T6">
-        <v>0.1389478436599543</v>
+        <v>0.4014598953924287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>675074.2008054479</v>
+        <v>675605.1256661987</v>
       </c>
       <c r="R7">
-        <v>675074.2008054479</v>
+        <v>6080446.130995789</v>
       </c>
       <c r="S7">
-        <v>0.317398279349579</v>
+        <v>0.1965476726826421</v>
       </c>
       <c r="T7">
-        <v>0.317398279349579</v>
+        <v>0.1965476726826422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>797982.8725248113</v>
+        <v>987907.1212156169</v>
       </c>
       <c r="R8">
-        <v>797982.8725248113</v>
+        <v>8891164.090940554</v>
       </c>
       <c r="S8">
-        <v>0.3751860023499887</v>
+        <v>0.2874028602285558</v>
       </c>
       <c r="T8">
-        <v>0.3751860023499887</v>
+        <v>0.2874028602285558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>325190.4568666967</v>
+        <v>333013.2536072853</v>
       </c>
       <c r="R9">
-        <v>325190.4568666967</v>
+        <v>2997119.282465568</v>
       </c>
       <c r="S9">
-        <v>0.1528941431138159</v>
+        <v>0.09688052603870453</v>
       </c>
       <c r="T9">
-        <v>0.1528941431138159</v>
+        <v>0.09688052603870455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H10">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>50.76971635867969</v>
+        <v>304.1218547513259</v>
       </c>
       <c r="R10">
-        <v>50.76971635867969</v>
+        <v>2737.096692761933</v>
       </c>
       <c r="S10">
-        <v>2.387029543727909E-05</v>
+        <v>8.847541336273821E-05</v>
       </c>
       <c r="T10">
-        <v>2.387029543727909E-05</v>
+        <v>8.847541336273823E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H11">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>115.973160797999</v>
+        <v>148.8926875370001</v>
       </c>
       <c r="R11">
-        <v>115.973160797999</v>
+        <v>1340.034187833001</v>
       </c>
       <c r="S11">
-        <v>5.452686777853215E-05</v>
+        <v>4.3315999395363E-05</v>
       </c>
       <c r="T11">
-        <v>5.452686777853215E-05</v>
+        <v>4.331599939536301E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H12">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>137.0880354766214</v>
+        <v>217.7191094719566</v>
       </c>
       <c r="R12">
-        <v>137.0880354766214</v>
+        <v>1959.47198524761</v>
       </c>
       <c r="S12">
-        <v>6.445440594201201E-05</v>
+        <v>6.333904619662866E-05</v>
       </c>
       <c r="T12">
-        <v>6.445440594201201E-05</v>
+        <v>6.333904619662866E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H13">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N13">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q13">
-        <v>55.86551093076792</v>
+        <v>73.39085574008399</v>
       </c>
       <c r="R13">
-        <v>55.86551093076792</v>
+        <v>660.517701660756</v>
       </c>
       <c r="S13">
-        <v>2.626617492307482E-05</v>
+        <v>2.13509361369588E-05</v>
       </c>
       <c r="T13">
-        <v>2.626617492307482E-05</v>
+        <v>2.135093613695881E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H14">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N14">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q14">
-        <v>4502.275318607671</v>
+        <v>22396.67150628798</v>
       </c>
       <c r="R14">
-        <v>4502.275318607671</v>
+        <v>201570.0435565918</v>
       </c>
       <c r="S14">
-        <v>0.002116825732014584</v>
+        <v>0.006515660543661244</v>
       </c>
       <c r="T14">
-        <v>0.002116825732014584</v>
+        <v>0.006515660543661244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H15">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N15">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q15">
-        <v>10284.53844005931</v>
+        <v>10965.01471484608</v>
       </c>
       <c r="R15">
-        <v>10284.53844005931</v>
+        <v>98685.13243361469</v>
       </c>
       <c r="S15">
-        <v>0.004835460755106206</v>
+        <v>0.003189952297962185</v>
       </c>
       <c r="T15">
-        <v>0.004835460755106206</v>
+        <v>0.003189952297962185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H16">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N16">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q16">
-        <v>12157.01254350786</v>
+        <v>16033.64999688075</v>
       </c>
       <c r="R16">
-        <v>12157.01254350786</v>
+        <v>144302.8499719268</v>
       </c>
       <c r="S16">
-        <v>0.005715838138588074</v>
+        <v>0.004664524397128373</v>
       </c>
       <c r="T16">
-        <v>0.005715838138588074</v>
+        <v>0.004664524397128373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H17">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N17">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q17">
-        <v>4954.172074707735</v>
+        <v>5404.777269032701</v>
       </c>
       <c r="R17">
-        <v>4954.172074707735</v>
+        <v>48642.9954212943</v>
       </c>
       <c r="S17">
-        <v>0.002329293121019652</v>
+        <v>0.001572362839238257</v>
       </c>
       <c r="T17">
-        <v>0.002329293121019652</v>
+        <v>0.001572362839238257</v>
       </c>
     </row>
   </sheetData>
